--- a/Cyan-Stars/Assets/Editor/gal模板.xlsx
+++ b/Cyan-Stars/Assets/Editor/gal模板.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGS\Desktop\work_folder\unity\porject\CyanStars\Cyan-Stars\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51C467CF-393D-42C1-A922-491B48AB51B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6485C9-9386-410F-8997-B4EA1882B70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3375" yWindow="2430" windowWidth="28755" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
   <si>
     <t>标记</t>
   </si>
@@ -236,6 +236,10 @@
   </si>
   <si>
     <t>指数衰减加速反弹缓动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -345,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -383,6 +387,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - 着色 2" xfId="1" builtinId="35"/>
@@ -392,7 +399,107 @@
     <cellStyle name="40% - 着色 6" xfId="5" builtinId="51"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -671,7 +778,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P29" sqref="P29"/>
+      <selection activeCell="S15" sqref="S15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -798,7 +905,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -824,7 +931,7 @@
       </c>
       <c r="M3">
         <f ca="1">RAND()</f>
-        <v>0.16957467447279362</v>
+        <v>0.97177302663782561</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>39</v>
@@ -840,7 +947,7 @@
       </c>
       <c r="R3">
         <f ca="1">RAND()</f>
-        <v>0.47479568184600807</v>
+        <v>0.68089231931186089</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>17</v>
@@ -861,7 +968,7 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -885,7 +992,7 @@
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M20" ca="1" si="0">RAND()</f>
-        <v>1.5648196668175407E-2</v>
+        <v>0.15315835127607103</v>
       </c>
       <c r="N4" s="1"/>
       <c r="O4" s="1">
@@ -899,7 +1006,7 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R20" ca="1" si="1">RAND()</f>
-        <v>0.83819261242399967</v>
+        <v>0.37749616872438863</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>19</v>
@@ -918,7 +1025,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -942,7 +1049,7 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.81422561452878051</v>
+        <v>0.48794870540938062</v>
       </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1">
@@ -956,7 +1063,7 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.94712595760206542</v>
+        <v>0.11058600921648343</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>21</v>
@@ -975,7 +1082,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -999,7 +1106,7 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>6.967273516763739E-2</v>
+        <v>0.53787788666085601</v>
       </c>
       <c r="N6" s="1"/>
       <c r="O6" s="1">
@@ -1013,7 +1120,7 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98148295425564669</v>
+        <v>0.62819511917948656</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>19</v>
@@ -1034,7 +1141,7 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1058,7 +1165,7 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.14063168163909545</v>
+        <v>0.15773191617825266</v>
       </c>
       <c r="N7" s="1"/>
       <c r="O7" s="1">
@@ -1072,7 +1179,7 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.71146938407706928</v>
+        <v>0.34552841049092486</v>
       </c>
       <c r="S7" s="1"/>
       <c r="X7" s="1"/>
@@ -1089,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="13" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1113,7 +1220,7 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7615294879936495</v>
+        <v>0.96216008704510048</v>
       </c>
       <c r="N8" s="1"/>
       <c r="O8" s="1">
@@ -1127,7 +1234,7 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.98365692481310074</v>
+        <v>0.33103178102383179</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>21</v>
@@ -1146,11 +1253,11 @@
         <v>9</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="13" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>18</v>
@@ -1166,7 +1273,7 @@
       <c r="L9" s="1"/>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.28588662830329437</v>
+        <v>0.20730731710110961</v>
       </c>
       <c r="N9" s="1"/>
       <c r="O9" s="1">
@@ -1176,7 +1283,7 @@
       <c r="Q9" s="1"/>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.36720639632095586</v>
+        <v>0.45476738708489894</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>17</v>
@@ -1195,11 +1302,11 @@
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="13" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1217,7 +1324,7 @@
       <c r="L10" s="1"/>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.91526613267671186</v>
+        <v>0.77815560884420976</v>
       </c>
       <c r="N10" s="1" t="s">
         <v>38</v>
@@ -1229,7 +1336,7 @@
       <c r="Q10" s="1"/>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.43391665701371795</v>
+        <v>0.45989753134376932</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>21</v>
@@ -1248,11 +1355,11 @@
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>13</v>
+        <v>60</v>
       </c>
       <c r="G11" s="1" t="s">
         <v>20</v>
@@ -1268,7 +1375,7 @@
       <c r="L11" s="1"/>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77681271964343601</v>
+        <v>9.9682622936678511E-2</v>
       </c>
       <c r="N11" s="1"/>
       <c r="O11" s="1">
@@ -1278,7 +1385,7 @@
       <c r="Q11" s="1"/>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.69511791302654025</v>
+        <v>0.59893146068584069</v>
       </c>
       <c r="S11" s="1"/>
       <c r="X11" s="1"/>
@@ -1295,7 +1402,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="13" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1315,7 +1422,7 @@
       <c r="L12" s="1"/>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5107603328137245E-2</v>
+        <v>0.65215972431911395</v>
       </c>
       <c r="N12" s="1"/>
       <c r="O12" s="1">
@@ -1325,7 +1432,7 @@
       <c r="Q12" s="1"/>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.75068173301295749</v>
+        <v>0.57982639920726398</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>19</v>
@@ -1344,7 +1451,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="1">
+      <c r="E13" s="13">
         <v>447</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1364,7 +1471,7 @@
       <c r="L13" s="1"/>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.8964114170307893</v>
+        <v>0.68071719534579556</v>
       </c>
       <c r="N13" s="1"/>
       <c r="O13" s="1">
@@ -1374,7 +1481,7 @@
       <c r="Q13" s="1"/>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.96733584521628935</v>
+        <v>0.88574906576611467</v>
       </c>
       <c r="S13" s="1"/>
       <c r="X13" s="1"/>
@@ -1391,7 +1498,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1">
+      <c r="E14" s="13">
         <v>448</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1411,7 +1518,7 @@
       <c r="L14" s="1"/>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.45118724915963582</v>
+        <v>0.33321275508657722</v>
       </c>
       <c r="N14" s="1"/>
       <c r="O14" s="1">
@@ -1421,7 +1528,7 @@
       <c r="Q14" s="1"/>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.12230472300104533</v>
+        <v>0.652917413229266</v>
       </c>
       <c r="S14" s="1"/>
       <c r="X14" s="1"/>
@@ -1438,7 +1545,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="13" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1462,7 +1569,7 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76455930923599003</v>
+        <v>0.77222127386946515</v>
       </c>
       <c r="N15" s="1"/>
       <c r="O15" s="1">
@@ -1476,7 +1583,7 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.73045744556559056</v>
+        <v>0.66566777798848054</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>17</v>
@@ -1497,7 +1604,7 @@
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="13" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1521,7 +1628,7 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.76744111593535091</v>
+        <v>0.1773506204992038</v>
       </c>
       <c r="N16" s="1"/>
       <c r="O16" s="1">
@@ -1535,7 +1642,7 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.32891529825779009</v>
+        <v>0.22534394296130156</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
@@ -1554,7 +1661,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1578,7 +1685,7 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82511301516144608</v>
+        <v>1.2302602479960845E-2</v>
       </c>
       <c r="N17" s="1"/>
       <c r="O17" s="1">
@@ -1592,7 +1699,7 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66603893055492613</v>
+        <v>0.89122765545956906</v>
       </c>
       <c r="S17" s="1"/>
       <c r="X17" s="1"/>
@@ -1609,7 +1716,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="13" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1631,7 +1738,7 @@
       <c r="L18" s="1"/>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.21242396191489676</v>
+        <v>0.82125683005659489</v>
       </c>
       <c r="N18" s="1"/>
       <c r="O18" s="1">
@@ -1643,7 +1750,7 @@
       <c r="Q18" s="1"/>
       <c r="R18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.61802199215259868</v>
+        <v>0.13849131195306663</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>17</v>
@@ -1664,7 +1771,7 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" s="13">
         <v>453</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1686,7 +1793,7 @@
       <c r="L19" s="1"/>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>5.5811512034816824E-2</v>
+        <v>0.33230160919109564</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1">
@@ -1698,7 +1805,7 @@
       <c r="Q19" s="1"/>
       <c r="R19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.55469635322571054</v>
+        <v>0.50762749441057742</v>
       </c>
       <c r="S19" s="1"/>
       <c r="X19" s="1"/>
@@ -1716,7 +1823,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="1">
+      <c r="E20" s="13">
         <v>454</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1738,7 +1845,7 @@
       <c r="L20" s="1"/>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>3.8627923637583939E-2</v>
+        <v>2.4552474321914985E-2</v>
       </c>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
@@ -1750,7 +1857,7 @@
       <c r="Q20" s="1"/>
       <c r="R20">
         <f t="shared" ca="1" si="1"/>
-        <v>9.3926959468572435E-2</v>
+        <v>0.3287382195346048</v>
       </c>
       <c r="S20" s="1"/>
       <c r="X20" s="1"/>
@@ -1768,7 +1875,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1">
+      <c r="E21" s="13">
         <v>455</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1806,7 +1913,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
+      <c r="E22" s="13"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1831,6 +1938,16 @@
     <mergeCell ref="T1:U1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E3:F21">
+    <cfRule type="expression" dxfId="3" priority="2">
+      <formula>IF($F3="是",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A3:A22">
+    <cfRule type="expression" dxfId="2" priority="1">
+      <formula>IF($A3="&amp;",1,0)</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Cyan-Stars/Assets/Editor/gal模板.xlsx
+++ b/Cyan-Stars/Assets/Editor/gal模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\TGS\Desktop\work_folder\unity\porject\CyanStars\Cyan-Stars\Assets\Editor\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F6485C9-9386-410F-8997-B4EA1882B70E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C580998E-A59E-4E52-B5E3-84C4FBE74088}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="70">
   <si>
     <t>标记</t>
   </si>
@@ -241,6 +241,33 @@
   <si>
     <t>否</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VerticalDrawing3</t>
+  </si>
+  <si>
+    <t>VerticalDrawing4</t>
+  </si>
+  <si>
+    <t>VerticalDrawing5</t>
+  </si>
+  <si>
+    <t>VerticalDrawing6</t>
+  </si>
+  <si>
+    <t>VerticalDrawing7</t>
+  </si>
+  <si>
+    <t>VerticalDrawing8</t>
+  </si>
+  <si>
+    <t>VerticalDrawing9</t>
+  </si>
+  <si>
+    <t>VerticalDrawing10</t>
+  </si>
+  <si>
+    <t>VerticalDrawing11</t>
   </si>
 </sst>
 </file>
@@ -372,6 +399,9 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -387,9 +417,6 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="40% - 着色 2" xfId="1" builtinId="35"/>
@@ -399,7 +426,7 @@
     <cellStyle name="40% - 着色 6" xfId="5" builtinId="51"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="2">
     <dxf>
       <fill>
         <patternFill>
@@ -408,91 +435,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color auto="1"/>
-      </font>
       <fill>
         <patternFill>
           <bgColor theme="2"/>
@@ -778,7 +720,7 @@
   <dimension ref="A1:AC22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S15" sqref="S15"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -791,39 +733,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="8" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="9" t="s">
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="9"/>
-      <c r="K1" s="9"/>
-      <c r="L1" s="9"/>
-      <c r="M1" s="9"/>
-      <c r="N1" s="10" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="10"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-      <c r="R1" s="10"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
       <c r="S1" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="T1" s="12" t="s">
+      <c r="T1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="U1" s="12"/>
+      <c r="U1" s="13"/>
     </row>
     <row r="2" spans="1:26" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -905,7 +847,7 @@
       <c r="D3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F3" s="1" t="s">
@@ -931,7 +873,7 @@
       </c>
       <c r="M3">
         <f ca="1">RAND()</f>
-        <v>0.97177302663782561</v>
+        <v>0.69911015947093968</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>39</v>
@@ -947,7 +889,7 @@
       </c>
       <c r="R3">
         <f ca="1">RAND()</f>
-        <v>0.68089231931186089</v>
+        <v>4.4914221548634004E-2</v>
       </c>
       <c r="S3" s="1" t="s">
         <v>17</v>
@@ -968,7 +910,7 @@
       <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F4" s="1" t="s">
@@ -980,7 +922,9 @@
       <c r="H4" s="1">
         <v>100</v>
       </c>
-      <c r="I4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="J4" s="1">
         <v>0.3</v>
       </c>
@@ -992,11 +936,13 @@
       </c>
       <c r="M4">
         <f t="shared" ref="M4:M20" ca="1" si="0">RAND()</f>
-        <v>0.15315835127607103</v>
-      </c>
-      <c r="N4" s="1"/>
+        <v>0.17366311201245332</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="O4" s="1">
-        <v>0.2</v>
+        <v>0.7</v>
       </c>
       <c r="P4" s="1" t="s">
         <v>42</v>
@@ -1006,7 +952,7 @@
       </c>
       <c r="R4">
         <f t="shared" ref="R4:R20" ca="1" si="1">RAND()</f>
-        <v>0.37749616872438863</v>
+        <v>0.70077457649478325</v>
       </c>
       <c r="S4" s="1" t="s">
         <v>19</v>
@@ -1025,7 +971,7 @@
         <v>3</v>
       </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="13" t="s">
+      <c r="E5" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
@@ -1037,7 +983,9 @@
       <c r="H5" s="1">
         <v>100</v>
       </c>
-      <c r="I5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J5" s="1">
         <v>0.2</v>
       </c>
@@ -1049,11 +997,13 @@
       </c>
       <c r="M5">
         <f t="shared" ca="1" si="0"/>
-        <v>0.48794870540938062</v>
-      </c>
-      <c r="N5" s="1"/>
+        <v>9.9154266143966829E-2</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="O5" s="1">
-        <v>0.1</v>
+        <v>0.4</v>
       </c>
       <c r="P5" s="1" t="s">
         <v>43</v>
@@ -1063,7 +1013,7 @@
       </c>
       <c r="R5">
         <f t="shared" ca="1" si="1"/>
-        <v>0.11058600921648343</v>
+        <v>0.83400175812455846</v>
       </c>
       <c r="S5" s="1" t="s">
         <v>21</v>
@@ -1082,7 +1032,7 @@
         <v>4</v>
       </c>
       <c r="D6" s="1"/>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1094,7 +1044,9 @@
       <c r="H6" s="1">
         <v>100</v>
       </c>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J6" s="1">
         <v>0.7</v>
       </c>
@@ -1106,11 +1058,13 @@
       </c>
       <c r="M6">
         <f t="shared" ca="1" si="0"/>
-        <v>0.53787788666085601</v>
-      </c>
-      <c r="N6" s="1"/>
+        <v>0.54318315047201293</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="O6" s="1">
-        <v>0.7</v>
+        <v>0.1</v>
       </c>
       <c r="P6" s="1" t="s">
         <v>42</v>
@@ -1120,7 +1074,7 @@
       </c>
       <c r="R6">
         <f t="shared" ca="1" si="1"/>
-        <v>0.62819511917948656</v>
+        <v>0.4754531062331202</v>
       </c>
       <c r="S6" s="1" t="s">
         <v>19</v>
@@ -1141,7 +1095,7 @@
       <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="8" t="s">
         <v>45</v>
       </c>
       <c r="F7" s="1" t="s">
@@ -1153,7 +1107,9 @@
       <c r="H7" s="1">
         <v>100</v>
       </c>
-      <c r="I7" s="1"/>
+      <c r="I7" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J7" s="1">
         <v>-1</v>
       </c>
@@ -1165,9 +1121,11 @@
       </c>
       <c r="M7">
         <f t="shared" ca="1" si="0"/>
-        <v>0.15773191617825266</v>
-      </c>
-      <c r="N7" s="1"/>
+        <v>0.54316100630910258</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O7" s="1">
         <v>-1</v>
       </c>
@@ -1179,7 +1137,7 @@
       </c>
       <c r="R7">
         <f t="shared" ca="1" si="1"/>
-        <v>0.34552841049092486</v>
+        <v>0.89088590448079086</v>
       </c>
       <c r="S7" s="1"/>
       <c r="X7" s="1"/>
@@ -1196,7 +1154,7 @@
         <v>8</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="13" t="s">
+      <c r="E8" s="8" t="s">
         <v>46</v>
       </c>
       <c r="F8" s="1" t="s">
@@ -1208,7 +1166,9 @@
       <c r="H8" s="1">
         <v>100</v>
       </c>
-      <c r="I8" s="1"/>
+      <c r="I8" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J8" s="1">
         <v>-1</v>
       </c>
@@ -1220,9 +1180,11 @@
       </c>
       <c r="M8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.96216008704510048</v>
-      </c>
-      <c r="N8" s="1"/>
+        <v>0.89145596263477722</v>
+      </c>
+      <c r="N8" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="O8" s="1">
         <v>-1</v>
       </c>
@@ -1234,7 +1196,7 @@
       </c>
       <c r="R8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.33103178102383179</v>
+        <v>0.36802746397581232</v>
       </c>
       <c r="S8" s="1" t="s">
         <v>21</v>
@@ -1253,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="D9" s="1"/>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="8" t="s">
         <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
@@ -1265,7 +1227,9 @@
       <c r="H9" s="1">
         <v>100</v>
       </c>
-      <c r="I9" s="1"/>
+      <c r="I9" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="J9" s="1">
         <v>-1</v>
       </c>
@@ -1273,9 +1237,11 @@
       <c r="L9" s="1"/>
       <c r="M9">
         <f t="shared" ca="1" si="0"/>
-        <v>0.20730731710110961</v>
-      </c>
-      <c r="N9" s="1"/>
+        <v>0.73343889989213107</v>
+      </c>
+      <c r="N9" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="O9" s="1">
         <v>-1</v>
       </c>
@@ -1283,7 +1249,7 @@
       <c r="Q9" s="1"/>
       <c r="R9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45476738708489894</v>
+        <v>0.11035279852946422</v>
       </c>
       <c r="S9" s="1" t="s">
         <v>17</v>
@@ -1302,7 +1268,7 @@
         <v>10</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="8" t="s">
         <v>48</v>
       </c>
       <c r="F10" s="1" t="s">
@@ -1315,7 +1281,7 @@
         <v>100</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>39</v>
+        <v>66</v>
       </c>
       <c r="J10" s="1">
         <v>-1</v>
@@ -1324,10 +1290,10 @@
       <c r="L10" s="1"/>
       <c r="M10">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77815560884420976</v>
+        <v>0.78256366995196824</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="O10" s="1">
         <v>-1</v>
@@ -1336,7 +1302,7 @@
       <c r="Q10" s="1"/>
       <c r="R10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.45989753134376932</v>
+        <v>0.89966800925065549</v>
       </c>
       <c r="S10" s="1" t="s">
         <v>21</v>
@@ -1355,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="D11" s="1"/>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="8" t="s">
         <v>49</v>
       </c>
       <c r="F11" s="1" t="s">
@@ -1367,7 +1333,9 @@
       <c r="H11" s="1">
         <v>100</v>
       </c>
-      <c r="I11" s="1"/>
+      <c r="I11" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J11" s="1">
         <v>-1</v>
       </c>
@@ -1375,9 +1343,11 @@
       <c r="L11" s="1"/>
       <c r="M11">
         <f t="shared" ca="1" si="0"/>
-        <v>9.9682622936678511E-2</v>
-      </c>
-      <c r="N11" s="1"/>
+        <v>0.82505288714503389</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="O11" s="1">
         <v>-1</v>
       </c>
@@ -1385,7 +1355,7 @@
       <c r="Q11" s="1"/>
       <c r="R11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.59893146068584069</v>
+        <v>0.7118037734587378</v>
       </c>
       <c r="S11" s="1"/>
       <c r="X11" s="1"/>
@@ -1402,7 +1372,7 @@
         <v>10</v>
       </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="8" t="s">
         <v>50</v>
       </c>
       <c r="F12" s="1" t="s">
@@ -1414,7 +1384,9 @@
       <c r="H12" s="1">
         <v>100</v>
       </c>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="J12" s="1">
         <v>-1</v>
       </c>
@@ -1422,9 +1394,11 @@
       <c r="L12" s="1"/>
       <c r="M12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.65215972431911395</v>
-      </c>
-      <c r="N12" s="1"/>
+        <v>0.2755219639957035</v>
+      </c>
+      <c r="N12" s="1" t="s">
+        <v>69</v>
+      </c>
       <c r="O12" s="1">
         <v>-1</v>
       </c>
@@ -1432,7 +1406,7 @@
       <c r="Q12" s="1"/>
       <c r="R12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.57982639920726398</v>
+        <v>0.49260958053631465</v>
       </c>
       <c r="S12" s="1" t="s">
         <v>19</v>
@@ -1451,7 +1425,7 @@
         <v>11</v>
       </c>
       <c r="D13" s="1"/>
-      <c r="E13" s="13">
+      <c r="E13" s="8">
         <v>447</v>
       </c>
       <c r="F13" s="1" t="s">
@@ -1463,7 +1437,9 @@
       <c r="H13" s="1">
         <v>100</v>
       </c>
-      <c r="I13" s="1"/>
+      <c r="I13" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="J13" s="1">
         <v>-1</v>
       </c>
@@ -1471,9 +1447,11 @@
       <c r="L13" s="1"/>
       <c r="M13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.68071719534579556</v>
-      </c>
-      <c r="N13" s="1"/>
+        <v>0.69486727317328456</v>
+      </c>
+      <c r="N13" s="1" t="s">
+        <v>38</v>
+      </c>
       <c r="O13" s="1">
         <v>-1</v>
       </c>
@@ -1481,7 +1459,7 @@
       <c r="Q13" s="1"/>
       <c r="R13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.88574906576611467</v>
+        <v>0.13772803401242206</v>
       </c>
       <c r="S13" s="1"/>
       <c r="X13" s="1"/>
@@ -1498,7 +1476,7 @@
         <v>12</v>
       </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="13">
+      <c r="E14" s="8">
         <v>448</v>
       </c>
       <c r="F14" s="1" t="s">
@@ -1510,7 +1488,9 @@
       <c r="H14" s="1">
         <v>100</v>
       </c>
-      <c r="I14" s="1"/>
+      <c r="I14" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="J14" s="1">
         <v>-1</v>
       </c>
@@ -1518,9 +1498,11 @@
       <c r="L14" s="1"/>
       <c r="M14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33321275508657722</v>
-      </c>
-      <c r="N14" s="1"/>
+        <v>0.79732106391527147</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>39</v>
+      </c>
       <c r="O14" s="1">
         <v>-1</v>
       </c>
@@ -1528,7 +1510,7 @@
       <c r="Q14" s="1"/>
       <c r="R14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.652917413229266</v>
+        <v>0.42749064947777848</v>
       </c>
       <c r="S14" s="1"/>
       <c r="X14" s="1"/>
@@ -1545,7 +1527,7 @@
         <v>13</v>
       </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -1557,7 +1539,9 @@
       <c r="H15" s="1">
         <v>100</v>
       </c>
-      <c r="I15" s="1"/>
+      <c r="I15" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="J15" s="1">
         <v>-1</v>
       </c>
@@ -1569,9 +1553,11 @@
       </c>
       <c r="M15">
         <f t="shared" ca="1" si="0"/>
-        <v>0.77222127386946515</v>
-      </c>
-      <c r="N15" s="1"/>
+        <v>0.93340728136508444</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>61</v>
+      </c>
       <c r="O15" s="1">
         <v>-1</v>
       </c>
@@ -1583,7 +1569,7 @@
       </c>
       <c r="R15">
         <f t="shared" ca="1" si="1"/>
-        <v>0.66566777798848054</v>
+        <v>0.85035281442305144</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>17</v>
@@ -1604,7 +1590,7 @@
       <c r="D16" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F16" s="1" t="s">
@@ -1616,7 +1602,9 @@
       <c r="H16" s="1">
         <v>100</v>
       </c>
-      <c r="I16" s="1"/>
+      <c r="I16" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="J16" s="1">
         <v>-1</v>
       </c>
@@ -1628,9 +1616,11 @@
       </c>
       <c r="M16">
         <f t="shared" ca="1" si="0"/>
-        <v>0.1773506204992038</v>
-      </c>
-      <c r="N16" s="1"/>
+        <v>0.46457339770443518</v>
+      </c>
+      <c r="N16" s="1" t="s">
+        <v>62</v>
+      </c>
       <c r="O16" s="1">
         <v>-1</v>
       </c>
@@ -1642,7 +1632,7 @@
       </c>
       <c r="R16">
         <f t="shared" ca="1" si="1"/>
-        <v>0.22534394296130156</v>
+        <v>0.90103578265863427</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>21</v>
@@ -1661,7 +1651,7 @@
         <v>15</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="8" t="s">
         <v>14</v>
       </c>
       <c r="F17" s="1" t="s">
@@ -1673,7 +1663,9 @@
       <c r="H17" s="1">
         <v>100</v>
       </c>
-      <c r="I17" s="1"/>
+      <c r="I17" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="J17" s="1">
         <v>-1</v>
       </c>
@@ -1685,9 +1677,11 @@
       </c>
       <c r="M17">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2302602479960845E-2</v>
-      </c>
-      <c r="N17" s="1"/>
+        <v>0.83058787087238228</v>
+      </c>
+      <c r="N17" s="1" t="s">
+        <v>63</v>
+      </c>
       <c r="O17" s="1">
         <v>-1</v>
       </c>
@@ -1699,7 +1693,7 @@
       </c>
       <c r="R17">
         <f t="shared" ca="1" si="1"/>
-        <v>0.89122765545956906</v>
+        <v>0.94279008605067083</v>
       </c>
       <c r="S17" s="1"/>
       <c r="X17" s="1"/>
@@ -1716,7 +1710,7 @@
         <v>16</v>
       </c>
       <c r="D18" s="1"/>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="1" t="s">
@@ -1728,7 +1722,9 @@
       <c r="H18" s="1">
         <v>100</v>
       </c>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="J18" s="1">
         <v>-1</v>
       </c>
@@ -1738,9 +1734,11 @@
       <c r="L18" s="1"/>
       <c r="M18">
         <f t="shared" ca="1" si="0"/>
-        <v>0.82125683005659489</v>
-      </c>
-      <c r="N18" s="1"/>
+        <v>0.99705031976567093</v>
+      </c>
+      <c r="N18" s="1" t="s">
+        <v>64</v>
+      </c>
       <c r="O18" s="1">
         <v>-1</v>
       </c>
@@ -1750,7 +1748,7 @@
       <c r="Q18" s="1"/>
       <c r="R18">
         <f t="shared" ca="1" si="1"/>
-        <v>0.13849131195306663</v>
+        <v>0.6698381696499015</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>17</v>
@@ -1771,7 +1769,7 @@
       <c r="D19" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E19" s="13">
+      <c r="E19" s="8">
         <v>453</v>
       </c>
       <c r="F19" s="1" t="s">
@@ -1783,7 +1781,9 @@
       <c r="H19" s="1">
         <v>100</v>
       </c>
-      <c r="I19" s="1"/>
+      <c r="I19" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="J19" s="1">
         <v>-1</v>
       </c>
@@ -1793,9 +1793,11 @@
       <c r="L19" s="1"/>
       <c r="M19">
         <f t="shared" ca="1" si="0"/>
-        <v>0.33230160919109564</v>
-      </c>
-      <c r="N19" s="1"/>
+        <v>9.0699595058170157E-2</v>
+      </c>
+      <c r="N19" s="1" t="s">
+        <v>65</v>
+      </c>
       <c r="O19" s="1">
         <v>-1</v>
       </c>
@@ -1805,7 +1807,7 @@
       <c r="Q19" s="1"/>
       <c r="R19">
         <f t="shared" ca="1" si="1"/>
-        <v>0.50762749441057742</v>
+        <v>0.72232343783435671</v>
       </c>
       <c r="S19" s="1"/>
       <c r="X19" s="1"/>
@@ -1823,7 +1825,7 @@
         <v>18</v>
       </c>
       <c r="D20" s="1"/>
-      <c r="E20" s="13">
+      <c r="E20" s="8">
         <v>454</v>
       </c>
       <c r="F20" s="1" t="s">
@@ -1835,7 +1837,9 @@
       <c r="H20" s="1">
         <v>100</v>
       </c>
-      <c r="I20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>67</v>
+      </c>
       <c r="J20" s="1">
         <v>-1</v>
       </c>
@@ -1845,9 +1849,11 @@
       <c r="L20" s="1"/>
       <c r="M20">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4552474321914985E-2</v>
-      </c>
-      <c r="N20" s="1"/>
+        <v>0.93869878851126132</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>66</v>
+      </c>
       <c r="O20" s="1">
         <v>-1</v>
       </c>
@@ -1857,7 +1863,7 @@
       <c r="Q20" s="1"/>
       <c r="R20">
         <f t="shared" ca="1" si="1"/>
-        <v>0.3287382195346048</v>
+        <v>0.17142793028844694</v>
       </c>
       <c r="S20" s="1"/>
       <c r="X20" s="1"/>
@@ -1875,7 +1881,7 @@
         <v>19</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="13">
+      <c r="E21" s="8">
         <v>455</v>
       </c>
       <c r="F21" s="1" t="s">
@@ -1913,7 +1919,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="13"/>
+      <c r="E22" s="8"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
@@ -1939,12 +1945,12 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="E3:F21">
-    <cfRule type="expression" dxfId="3" priority="2">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>IF($F3="是",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3:A22">
-    <cfRule type="expression" dxfId="2" priority="1">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>IF($A3="&amp;",1,0)</formula>
     </cfRule>
   </conditionalFormatting>
